--- a/biology/Microbiologie/Uronema_elegans/Uronema_elegans.xlsx
+++ b/biology/Microbiologie/Uronema_elegans/Uronema_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uronema elegans est une espèce de ciliés de la classe des oligohyménophores, de l'ordre des Philasterida et de la famille des Uronematidae. C'est une espèce marine[1] cosmopolite. Elle est présente en Polynésie française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uronema elegans est une espèce de ciliés de la classe des oligohyménophores, de l'ordre des Philasterida et de la famille des Uronematidae. C'est une espèce marine cosmopolite. Elle est présente en Polynésie française.
 </t>
         </is>
       </c>
